--- a/OnBoard/output/trust/bio/Bio_Trust_13.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_13.xlsx
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>-1</v>
+        <v>266</v>
       </c>
       <c r="I145">
         <v>-1</v>
